--- a/GBTH/Resources/base.xlsx
+++ b/GBTH/Resources/base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\elecbug\CSharp\GBTH\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1271449-C2CB-4719-A057-38149EBA68FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DF2872-646F-43F9-8BDF-CCC920F4CEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -294,45 +294,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -627,13 +627,11 @@
     <col min="3" max="3" width="6.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.09765625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.19921875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" ht="46.2" x14ac:dyDescent="0.65"/>
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="46.2" x14ac:dyDescent="0.65"/>
     <row r="2" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.4">
       <c r="F2" s="3" t="s">
         <v>10</v>
@@ -659,18 +657,18 @@
       <c r="J3" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="36.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -688,29 +686,29 @@
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="19"/>
       <c r="D7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="15"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="15"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -719,11 +717,11 @@
       <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
@@ -736,288 +734,306 @@
       <c r="I9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="19"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="20"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="21"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="21"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="21"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="21"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="21"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="21"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="21"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="21"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="21"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="21"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="21"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="21"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="21"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="21"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="21"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C30:E30"/>
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="C24:E24"/>
@@ -1026,27 +1042,9 @@
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78333333333333333" right="0.78333333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
@@ -1055,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EF3634-B65C-4474-B514-F7685A26FFD8}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1066,375 +1064,393 @@
     <col min="3" max="3" width="6.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.09765625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="8.19921875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="12" customFormat="1" ht="46.2" x14ac:dyDescent="0.65"/>
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="46.2" x14ac:dyDescent="0.65"/>
     <row r="2" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="19"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="20"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="21"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="16"/>
     </row>
     <row r="5" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="21"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="21"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="21"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="21"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="21"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="21"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="21"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="21"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="21"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="21"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="21"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="21"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="21"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="21"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="21"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="21"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="21"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="21"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="21"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="21"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -1445,29 +1461,9 @@
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.78333333333333333" right="0.78333333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GBTH/Resources/base.xlsx
+++ b/GBTH/Resources/base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkvkf\source\repos\elecbug\CSharp\GBTH\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\elecbug\CSharp\GBTH\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF641045-3D29-40E7-AC88-5B2F1979B157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A488F-159F-434D-AA94-12340435B823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1020" windowWidth="20790" windowHeight="13035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,11 +288,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,23 +579,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
-    <col min="6" max="10" width="8.25" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="3"/>
+    <col min="1" max="1" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="3" customWidth="1"/>
+    <col min="6" max="10" width="8.19921875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F2" s="12" t="s">
         <v>10</v>
       </c>
@@ -609,44 +612,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.6">
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="35.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:10" ht="36.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -658,7 +661,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -686,7 +689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="13"/>
@@ -698,7 +701,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="13"/>
@@ -710,7 +713,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="13"/>
@@ -722,7 +725,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="13"/>
@@ -734,7 +737,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="13"/>
@@ -746,7 +749,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="13"/>
@@ -758,7 +761,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="13"/>
@@ -770,7 +773,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="13"/>
@@ -782,7 +785,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="13"/>
@@ -794,7 +797,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="13"/>
@@ -806,7 +809,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="13"/>
@@ -818,7 +821,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="13"/>
@@ -830,7 +833,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="13"/>
@@ -842,7 +845,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="13"/>
@@ -854,7 +857,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="13"/>
@@ -866,7 +869,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="13"/>
@@ -878,7 +881,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="13"/>
@@ -890,7 +893,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="13"/>
@@ -902,7 +905,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="13"/>
@@ -914,7 +917,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="13"/>
@@ -926,7 +929,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="13"/>
@@ -938,7 +941,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -950,19 +953,19 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -976,14 +979,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
@@ -996,12 +997,14 @@
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1013,23 +1016,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EF3634-B65C-4474-B514-F7685A26FFD8}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" customWidth="1"/>
-    <col min="6" max="10" width="8.25" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="3"/>
+    <col min="1" max="1" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="3" customWidth="1"/>
+    <col min="6" max="10" width="8.19921875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="13"/>
@@ -1041,7 +1044,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="13"/>
@@ -1053,7 +1056,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="13"/>
@@ -1065,7 +1068,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="13"/>
@@ -1077,7 +1080,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="13"/>
@@ -1089,7 +1092,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="13"/>
@@ -1101,7 +1104,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="13"/>
@@ -1113,7 +1116,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="13"/>
@@ -1125,7 +1128,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="13"/>
@@ -1137,7 +1140,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="13"/>
@@ -1149,7 +1152,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="13"/>
@@ -1161,7 +1164,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="13"/>
@@ -1173,7 +1176,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="13"/>
@@ -1185,7 +1188,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="13"/>
@@ -1197,7 +1200,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="13"/>
@@ -1209,7 +1212,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="13"/>
@@ -1221,7 +1224,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="13"/>
@@ -1233,7 +1236,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="13"/>
@@ -1245,7 +1248,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="13"/>
@@ -1257,7 +1260,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="13"/>
@@ -1269,7 +1272,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="13"/>
@@ -1281,7 +1284,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="13"/>
@@ -1293,7 +1296,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="13"/>
@@ -1305,7 +1308,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="13"/>
@@ -1317,7 +1320,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="13"/>
@@ -1329,7 +1332,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="13"/>
@@ -1341,7 +1344,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="13"/>
@@ -1353,7 +1356,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="13"/>
@@ -1365,7 +1368,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="22.9" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="13"/>
@@ -1377,30 +1380,28 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
@@ -1413,14 +1414,16 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1436,7 +1439,7 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
